--- a/config/excel/HeroProfession.xlsx
+++ b/config/excel/HeroProfession.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HeroProfession" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,49 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+英雄升级属性职业系数表。目前此表英雄升级、突破不同养成各属性的职业系数相同。
+比如法师升级和突破的攻击力职业系数相同</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>职业</t>
+    <t>职业id</t>
+  </si>
+  <si>
+    <t>1=10000</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -56,6 +92,33 @@
   </si>
   <si>
     <t>int32</t>
+  </si>
+  <si>
+    <t>0:先锋</t>
+  </si>
+  <si>
+    <t>1:重装</t>
+  </si>
+  <si>
+    <t>2:阻击</t>
+  </si>
+  <si>
+    <t>3:法师</t>
+  </si>
+  <si>
+    <t>4:医疗</t>
+  </si>
+  <si>
+    <t>5:侠盗</t>
+  </si>
+  <si>
+    <t>6:护卫</t>
+  </si>
+  <si>
+    <t>7:特种</t>
+  </si>
+  <si>
+    <t>8:术士</t>
   </si>
 </sst>
 </file>
@@ -64,11 +127,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -85,6 +148,65 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,13 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -113,8 +228,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,110 +297,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -255,144 +329,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -400,42 +510,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,23 +541,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,23 +550,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,17 +576,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,157 +597,189 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -714,61 +788,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1916,20 +1990,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3076923076923" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
     <col min="7" max="16374" width="6" style="1" customWidth="1"/>
@@ -1946,78 +2020,233 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="16.8" spans="1:6">
+    <row r="2" ht="13.5" spans="1:6">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>13000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13500</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12500</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
@@ -2026,5 +2255,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/excel/HeroProfession.xlsx
+++ b/config/excel/HeroProfession.xlsx
@@ -47,9 +47,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>行列头两行不会被读取</t>
+  </si>
+  <si>
+    <t>只有升级、突破增加的属性，即填了成长率的属性，才会乘品质、职业系数</t>
   </si>
   <si>
     <t>职业id</t>
@@ -126,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -160,6 +163,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
@@ -168,21 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,9 +246,49 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,91 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -335,25 +338,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,19 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,121 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,48 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -597,10 +558,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -621,6 +580,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -635,16 +614,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +656,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1995,7 +1998,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>
@@ -2016,7 +2019,9 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
@@ -2024,10 +2029,10 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
@@ -2035,43 +2040,43 @@
     <row r="3" ht="16.15" customHeight="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2081,24 +2086,24 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2115,13 +2120,13 @@
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="E8" s="1">
         <v>13000</v>
@@ -2132,7 +2137,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -2149,7 +2154,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -2166,7 +2171,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -2183,7 +2188,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -2200,13 +2205,13 @@
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="E13" s="1">
         <v>12500</v>
@@ -2217,7 +2222,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>7</v>
@@ -2234,7 +2239,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>

--- a/config/excel/HeroProfession.xlsx
+++ b/config/excel/HeroProfession.xlsx
@@ -37,8 +37,10 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-英雄升级属性职业系数表。目前此表英雄升级、突破不同养成各属性的职业系数相同。
-比如法师升级和突破的攻击力职业系数相同</t>
+英雄升级属性职业系数表。
+目前此表英雄升级、突破不同养成各属性的职业系数相同。
+比如法师升级和突破的攻击力职业系数相同。
+只有升级、突破增加的属性，即填了成长率的属性，才会乘品质、职业系数</t>
         </r>
       </text>
     </comment>
@@ -47,12 +49,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>行列头两行不会被读取</t>
-  </si>
-  <si>
-    <t>只有升级、突破增加的属性，即填了成长率的属性，才会乘品质、职业系数</t>
   </si>
   <si>
     <t>职业id</t>
@@ -130,9 +129,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -157,9 +156,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,21 +216,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,83 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -332,19 +331,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,13 +451,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,139 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +540,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -558,9 +566,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,41 +610,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,10 +643,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,141 +655,144 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1998,12 +2000,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.3083333333333" style="1" customWidth="1"/>
@@ -2019,91 +2021,88 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="13.5" spans="1:6">
-      <c r="A2" s="3"/>
+    <row r="2" ht="22" customHeight="1" spans="1:6">
+      <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2120,7 +2119,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -2137,7 +2136,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -2154,7 +2153,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -2171,7 +2170,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -2188,7 +2187,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -2205,7 +2204,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -2222,7 +2221,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
         <v>7</v>
@@ -2239,7 +2238,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>

--- a/config/excel/HeroProfession.xlsx
+++ b/config/excel/HeroProfession.xlsx
@@ -39,8 +39,9 @@
           <t xml:space="preserve">
 英雄升级属性职业系数表。
 目前此表英雄升级、突破不同养成各属性的职业系数相同。
-比如法师升级和突破的攻击力职业系数相同。
-只有升级、突破增加的属性，即填了成长率的属性，才会乘品质、职业系数</t>
+比如法师升级和突破的攻击力职业系数相同都是1.35。
+只有在att表卡牌升级成长率id（目前id是20）那行填了升级、突破成长率的属性，才会走公式，乘品质、职业系数。
+关联globalconfig表内英雄升级成长率attid</t>
         </r>
       </text>
     </comment>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -57,9 +58,6 @@
     <t>职业id</t>
   </si>
   <si>
-    <t>1=10000</t>
-  </si>
-  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -94,6 +92,9 @@
   </si>
   <si>
     <t>int32</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
   <si>
     <t>0:先锋</t>
@@ -128,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -155,8 +156,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,25 +260,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,21 +278,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,68 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -331,6 +332,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,175 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,32 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -600,6 +575,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -610,6 +600,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,9 +630,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,10 +644,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +656,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2000,7 +2001,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>
@@ -2030,52 +2031,50 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2085,10 +2084,10 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
@@ -2108,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>12000</v>
+        <v>1.2</v>
       </c>
       <c r="E7" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
@@ -2125,13 +2124,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>8000</v>
+        <v>0.8</v>
       </c>
       <c r="E8" s="1">
-        <v>13000</v>
+        <v>1.3</v>
       </c>
       <c r="F8" s="1">
-        <v>13000</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -2142,13 +2141,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>13500</v>
+        <v>1.35</v>
       </c>
       <c r="E9" s="1">
-        <v>6000</v>
+        <v>0.6</v>
       </c>
       <c r="F9" s="1">
-        <v>6000</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -2159,13 +2158,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>13500</v>
+        <v>1.35</v>
       </c>
       <c r="E10" s="1">
-        <v>6000</v>
+        <v>0.6</v>
       </c>
       <c r="F10" s="1">
-        <v>6000</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
@@ -2176,13 +2175,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>6000</v>
+        <v>0.6</v>
       </c>
       <c r="F11" s="1">
-        <v>6000</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
@@ -2193,13 +2192,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>12500</v>
+        <v>1.25</v>
       </c>
       <c r="E12" s="1">
-        <v>7000</v>
+        <v>0.7</v>
       </c>
       <c r="F12" s="1">
-        <v>7000</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
@@ -2210,13 +2209,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>8000</v>
+        <v>0.8</v>
       </c>
       <c r="E13" s="1">
-        <v>12500</v>
+        <v>1.25</v>
       </c>
       <c r="F13" s="1">
-        <v>12500</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:6">
@@ -2227,13 +2226,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
@@ -2244,13 +2243,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="1">
-        <v>12500</v>
+        <v>1.25</v>
       </c>
       <c r="E15" s="1">
-        <v>7000</v>
+        <v>0.7</v>
       </c>
       <c r="F15" s="1">
-        <v>7000</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/HeroProfession.xlsx
+++ b/config/excel/HeroProfession.xlsx
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -149,10 +149,116 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,87 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
@@ -254,25 +279,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,7 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -292,14 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -332,187 +332,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +541,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -550,11 +565,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,41 +604,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,159 +632,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2001,7 +2001,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D3" sqref="D3:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>

--- a/config/excel/HeroProfession.xlsx
+++ b/config/excel/HeroProfession.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HeroProfession" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-英雄升级属性职业系数表。
-目前此表英雄升级、突破不同养成各属性的职业系数相同。
-比如法师升级和突破的攻击力职业系数相同都是1.35。
-只有在att表卡牌升级成长率id（目前id是20）那行填了升级、突破成长率的属性，才会走公式，乘品质、职业系数。
-关联globalconfig表内英雄升级成长率attid</t>
+目前英雄突破时，会体现出不同英雄职业的差异性。
+卡牌突破各属性公式=（卡牌突破强度等级*各突破属性成长率+各突破属性固定值）*卡牌品质系数*各突破属性卡牌职业系数
+关联att表读取卡牌突破属性成长率和固定值。
+关联HeroProfession表读取各属性的职业系数
+</t>
         </r>
       </text>
     </comment>
@@ -149,6 +149,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -157,13 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -172,106 +278,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,21 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -332,175 +332,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,21 +537,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,11 +565,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,28 +606,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,10 +644,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +656,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2001,7 +2001,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>

--- a/config/excel/HeroProfession.xlsx
+++ b/config/excel/HeroProfession.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HeroProfession" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-英雄升级属性职业系数表。
-目前此表英雄升级、突破不同养成各属性的职业系数相同。
-比如法师升级和突破的攻击力职业系数相同。
-只有升级、突破增加的属性，即填了成长率的属性，才会乘品质、职业系数</t>
+目前英雄突破时，会体现出不同英雄职业的差异性。
+卡牌突破各属性公式=（卡牌突破强度等级*各突破属性成长率+各突破属性固定值）*卡牌品质系数*各突破属性卡牌职业系数
+关联att表读取卡牌突破属性成长率和固定值。
+关联HeroProfession表读取各属性的职业系数
+</t>
         </r>
       </text>
     </comment>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -57,9 +58,6 @@
     <t>职业id</t>
   </si>
   <si>
-    <t>1=10000</t>
-  </si>
-  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -94,6 +92,9 @@
   </si>
   <si>
     <t>int32</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
   <si>
     <t>0:先锋</t>
@@ -128,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -148,6 +149,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -155,6 +164,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
@@ -163,7 +203,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,33 +278,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,90 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -331,6 +332,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,31 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,31 +470,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,103 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +565,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -571,15 +587,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,21 +621,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -637,151 +629,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2000,7 +2001,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>
@@ -2030,52 +2031,50 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2085,10 +2084,10 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
@@ -2108,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>12000</v>
+        <v>1.2</v>
       </c>
       <c r="E7" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
@@ -2125,13 +2124,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>8000</v>
+        <v>0.8</v>
       </c>
       <c r="E8" s="1">
-        <v>13000</v>
+        <v>1.3</v>
       </c>
       <c r="F8" s="1">
-        <v>13000</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -2142,13 +2141,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>13500</v>
+        <v>1.35</v>
       </c>
       <c r="E9" s="1">
-        <v>6000</v>
+        <v>0.6</v>
       </c>
       <c r="F9" s="1">
-        <v>6000</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -2159,13 +2158,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>13500</v>
+        <v>1.35</v>
       </c>
       <c r="E10" s="1">
-        <v>6000</v>
+        <v>0.6</v>
       </c>
       <c r="F10" s="1">
-        <v>6000</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
@@ -2176,13 +2175,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>6000</v>
+        <v>0.6</v>
       </c>
       <c r="F11" s="1">
-        <v>6000</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
@@ -2193,13 +2192,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>12500</v>
+        <v>1.25</v>
       </c>
       <c r="E12" s="1">
-        <v>7000</v>
+        <v>0.7</v>
       </c>
       <c r="F12" s="1">
-        <v>7000</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
@@ -2210,13 +2209,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>8000</v>
+        <v>0.8</v>
       </c>
       <c r="E13" s="1">
-        <v>12500</v>
+        <v>1.25</v>
       </c>
       <c r="F13" s="1">
-        <v>12500</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:6">
@@ -2227,13 +2226,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
@@ -2244,13 +2243,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="1">
-        <v>12500</v>
+        <v>1.25</v>
       </c>
       <c r="E15" s="1">
-        <v>7000</v>
+        <v>0.7</v>
       </c>
       <c r="F15" s="1">
-        <v>7000</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
